--- a/Excel/HorseData.xlsx
+++ b/Excel/HorseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="10931" windowHeight="5016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -194,7 +194,7 @@
     <t>时间戳 -1代表空闲状态</t>
   </si>
   <si>
-    <t>F-00-GG-GR-W1-R2-DP17</t>
+    <t>F-00-YY-CA-R1-O2-DP13</t>
   </si>
   <si>
     <t>小赤兔</t>
@@ -206,82 +206,124 @@
     <t>null</t>
   </si>
   <si>
+    <t>F-00-WW-PU-O1-W2-DP07</t>
+  </si>
+  <si>
     <t>小赤兔1</t>
   </si>
   <si>
     <t>3｜3</t>
   </si>
   <si>
+    <t>F-00-WW-OC-O1-G2-DP13</t>
+  </si>
+  <si>
     <t>小赤兔2</t>
   </si>
   <si>
     <t>3｜4</t>
   </si>
   <si>
+    <t>F-00-RR-SU-R1-W2-DP03</t>
+  </si>
+  <si>
     <t>小赤兔3</t>
   </si>
   <si>
     <t>3｜5</t>
   </si>
   <si>
+    <t>F-00-GG-SU-W1-R2-DP00</t>
+  </si>
+  <si>
     <t>小赤兔4</t>
   </si>
   <si>
     <t>3｜6</t>
   </si>
   <si>
+    <t>F-00-BB-CA-B1-O2-DP14</t>
+  </si>
+  <si>
     <t>小赤兔5</t>
   </si>
   <si>
     <t>3｜7</t>
   </si>
   <si>
+    <t>F-00-YY-CA-B1-G2-DP19</t>
+  </si>
+  <si>
     <t>小赤兔6</t>
   </si>
   <si>
     <t>3｜8</t>
   </si>
   <si>
+    <t>F-00-WW-GR-O1-W2-DP20</t>
+  </si>
+  <si>
     <t>小赤兔7</t>
   </si>
   <si>
     <t>3｜9</t>
   </si>
   <si>
+    <t>F-00-RR-GR-O1-R2-DP11</t>
+  </si>
+  <si>
     <t>小赤兔8</t>
   </si>
   <si>
     <t>3｜10</t>
   </si>
   <si>
+    <t>F-00-BB-OC-W1-R2-DP17</t>
+  </si>
+  <si>
     <t>小赤兔9</t>
   </si>
   <si>
     <t>3｜11</t>
   </si>
   <si>
+    <t>F-00-YY-CA-B1-Y2-DP04</t>
+  </si>
+  <si>
     <t>小赤兔11</t>
   </si>
   <si>
     <t>3｜12</t>
   </si>
   <si>
+    <t>F-00-YY-PU-O1-O2-DP07</t>
+  </si>
+  <si>
     <t>小赤兔112</t>
   </si>
   <si>
     <t>3｜13</t>
   </si>
   <si>
+    <t>F-00-WW-GR-O1-Y2-DP12</t>
+  </si>
+  <si>
     <t>小赤兔123</t>
   </si>
   <si>
     <t>3｜14</t>
   </si>
   <si>
+    <t>F-00-WW-CA-Y1-R2-DP03</t>
+  </si>
+  <si>
     <t>小赤兔1234</t>
   </si>
   <si>
     <t>3｜15</t>
+  </si>
+  <si>
+    <t>F-00-YY-CA-W1-W2-DP03</t>
   </si>
   <si>
     <t>3｜16</t>
@@ -1434,41 +1476,41 @@
   <sheetPr/>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.69090909090909" customWidth="1"/>
-    <col min="2" max="2" width="27.6909090909091" customWidth="1"/>
-    <col min="3" max="3" width="8.15454545454545" customWidth="1"/>
-    <col min="4" max="4" width="6.69090909090909" customWidth="1"/>
-    <col min="5" max="5" width="10.9272727272727" customWidth="1"/>
-    <col min="6" max="6" width="10.8454545454545" customWidth="1"/>
-    <col min="7" max="7" width="6.69090909090909" customWidth="1"/>
-    <col min="8" max="8" width="8.38181818181818" customWidth="1"/>
-    <col min="9" max="9" width="8.15454545454545" customWidth="1"/>
-    <col min="10" max="10" width="15.3090909090909" customWidth="1"/>
-    <col min="11" max="11" width="15.2272727272727" customWidth="1"/>
-    <col min="12" max="12" width="10.4636363636364" customWidth="1"/>
-    <col min="13" max="13" width="12.5363636363636" customWidth="1"/>
-    <col min="14" max="14" width="11.9272727272727" customWidth="1"/>
-    <col min="15" max="15" width="6.84545454545455" customWidth="1"/>
-    <col min="16" max="16" width="6.69090909090909" customWidth="1"/>
-    <col min="17" max="17" width="12.7727272727273" customWidth="1"/>
-    <col min="18" max="18" width="18.1545454545455" customWidth="1"/>
-    <col min="19" max="19" width="20.5363636363636" customWidth="1"/>
-    <col min="20" max="20" width="17.3818181818182" customWidth="1"/>
-    <col min="21" max="21" width="22.1545454545455" customWidth="1"/>
-    <col min="22" max="22" width="24.7727272727273" customWidth="1"/>
-    <col min="23" max="23" width="24.6181818181818" customWidth="1"/>
-    <col min="24" max="24" width="21.3818181818182" customWidth="1"/>
-    <col min="25" max="25" width="15.1545454545455" customWidth="1"/>
+    <col min="1" max="1" width="7.69444444444444" customWidth="1"/>
+    <col min="2" max="2" width="27.6944444444444" customWidth="1"/>
+    <col min="3" max="3" width="8.15740740740741" customWidth="1"/>
+    <col min="4" max="4" width="6.69444444444444" customWidth="1"/>
+    <col min="5" max="5" width="10.9259259259259" customWidth="1"/>
+    <col min="6" max="6" width="10.8425925925926" customWidth="1"/>
+    <col min="7" max="7" width="6.69444444444444" customWidth="1"/>
+    <col min="8" max="8" width="8.37962962962963" customWidth="1"/>
+    <col min="9" max="9" width="8.15740740740741" customWidth="1"/>
+    <col min="10" max="10" width="15.3055555555556" customWidth="1"/>
+    <col min="11" max="11" width="15.2314814814815" customWidth="1"/>
+    <col min="12" max="12" width="10.462962962963" customWidth="1"/>
+    <col min="13" max="13" width="12.537037037037" customWidth="1"/>
+    <col min="14" max="14" width="11.9259259259259" customWidth="1"/>
+    <col min="15" max="15" width="6.84259259259259" customWidth="1"/>
+    <col min="16" max="16" width="6.69444444444444" customWidth="1"/>
+    <col min="17" max="17" width="12.7685185185185" customWidth="1"/>
+    <col min="18" max="18" width="18.1574074074074" customWidth="1"/>
+    <col min="19" max="19" width="20.537037037037" customWidth="1"/>
+    <col min="20" max="20" width="17.3796296296296" customWidth="1"/>
+    <col min="21" max="21" width="22.1574074074074" customWidth="1"/>
+    <col min="22" max="22" width="24.7685185185185" customWidth="1"/>
+    <col min="23" max="23" width="24.6203703703704" customWidth="1"/>
+    <col min="24" max="24" width="21.3796296296296" customWidth="1"/>
+    <col min="25" max="25" width="15.1574074074074" customWidth="1"/>
     <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="6.69090909090909" customWidth="1"/>
-    <col min="28" max="28" width="8.15454545454545" customWidth="1"/>
-    <col min="29" max="29" width="24.9272727272727" customWidth="1"/>
+    <col min="27" max="27" width="6.69444444444444" customWidth="1"/>
+    <col min="28" max="28" width="8.15740740740741" customWidth="1"/>
+    <col min="29" max="29" width="24.9259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1832,12 +1874,14 @@
       <c r="A5">
         <v>1002</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -1920,12 +1964,14 @@
       <c r="A6">
         <v>1003</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>17</v>
@@ -2008,12 +2054,14 @@
       <c r="A7">
         <v>1004</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -2096,12 +2144,14 @@
       <c r="A8">
         <v>1005</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>19</v>
@@ -2184,12 +2234,14 @@
       <c r="A9">
         <v>1006</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -2272,12 +2324,14 @@
       <c r="A10">
         <v>1007</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>21</v>
@@ -2360,12 +2414,14 @@
       <c r="A11">
         <v>1008</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>22</v>
@@ -2448,12 +2504,14 @@
       <c r="A12">
         <v>1009</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>23</v>
@@ -2536,12 +2594,14 @@
       <c r="A13">
         <v>1010</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <v>24</v>
@@ -2624,12 +2684,14 @@
       <c r="A14">
         <v>1011</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -2712,12 +2774,14 @@
       <c r="A15">
         <v>1012</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <v>26</v>
@@ -2800,12 +2864,14 @@
       <c r="A16">
         <v>1013</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>27</v>
@@ -2888,12 +2954,14 @@
       <c r="A17">
         <v>1014</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E17">
         <v>28</v>
@@ -2976,12 +3044,14 @@
       <c r="A18">
         <v>1015</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>29</v>
